--- a/data/trans_bre/P1806_2023-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1806_2023-Provincia-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-0.3349117036397153</v>
+        <v>-0.3349117036397157</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>-0.3030976077898074</v>
+        <v>-0.3030976077898076</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.979774481535381</v>
+        <v>-1.88244813932063</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.9142564039256057</v>
+        <v>-0.9043699356612133</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7428495367948276</v>
+        <v>0.7282386162847307</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3.129638408403899</v>
+        <v>2.53722381579836</v>
       </c>
     </row>
     <row r="7">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.863643684485098</v>
+        <v>0.9145898071980287</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.2487146318669972</v>
+        <v>0.2573140658250039</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.66930923454731</v>
+        <v>4.849233291643502</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.38107038965081</v>
+        <v>5.75092027486589</v>
       </c>
     </row>
     <row r="10">
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>6.107597882385837</v>
+        <v>6.107597882385835</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>1.819985019123575</v>
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.966535483254269</v>
+        <v>3.301472935366238</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>0.5248813838640179</v>
+        <v>0.7163797532233175</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.013822337202575</v>
+        <v>9.004967239684449</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>3.996596191767606</v>
+        <v>4.389616860437773</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>2.836962419378509</v>
+        <v>2.836962419378511</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>1.040784800602201</v>
+        <v>1.040784800602202</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2953963012212987</v>
+        <v>-0.0774409007862972</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.08655525603401419</v>
+        <v>-0.1217207047215074</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.050402237877424</v>
+        <v>5.178661910928399</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.92900785573791</v>
+        <v>3.069352292233499</v>
       </c>
     </row>
     <row r="16">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>1.360292039345866</v>
+        <v>1.360292039345865</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.6592008028831132</v>
+        <v>0.6592008028831126</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.8538481194215719</v>
+        <v>-0.8721559876919969</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.3252396373612539</v>
+        <v>-0.316110984887892</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.446206299259133</v>
+        <v>3.507329937689266</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3.473243609298705</v>
+        <v>3.529610521502598</v>
       </c>
     </row>
     <row r="19">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>2.501537835154439</v>
+        <v>2.501537835154437</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.8310299576881268</v>
+        <v>0.831029957688126</v>
       </c>
     </row>
     <row r="20">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.631812604731502</v>
+        <v>-0.4969473753410091</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2531193335029422</v>
+        <v>-0.1944839256261165</v>
       </c>
     </row>
     <row r="21">
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>5.325292033109102</v>
+        <v>5.629229848722314</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.729484092039166</v>
+        <v>2.995941584333051</v>
       </c>
     </row>
     <row r="22">
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.338118506010399</v>
+        <v>2.552851378821359</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>0.3460622826194507</v>
+        <v>0.41269961568329</v>
       </c>
     </row>
     <row r="24">
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.643831747974109</v>
+        <v>7.494037154390694</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>2.589156791272</v>
+        <v>2.41665090303784</v>
       </c>
     </row>
     <row r="25">
@@ -888,10 +888,10 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1596250965133913</v>
+        <v>0.2083934591909315</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.006316881187814676</v>
+        <v>0.05435458520684197</v>
       </c>
     </row>
     <row r="27">
@@ -902,10 +902,10 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>2.155234070616456</v>
+        <v>2.233375314819033</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>5.327964228855871</v>
+        <v>5.544701721315791</v>
       </c>
     </row>
     <row r="28">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>2.879737068565238</v>
+        <v>2.879737068565237</v>
       </c>
       <c r="D28" s="6" t="n">
         <v>1.241541697206047</v>
@@ -934,10 +934,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.117638968035745</v>
+        <v>2.085835668933282</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>0.7610112501555156</v>
+        <v>0.7145298228348648</v>
       </c>
     </row>
     <row r="30">
@@ -948,10 +948,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.647284878524836</v>
+        <v>3.641373667667811</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1.844253117497517</v>
+        <v>1.823189200097533</v>
       </c>
     </row>
     <row r="31">
